--- a/Project Documents/Project Requirements/Forge Gantt Chart.xlsx
+++ b/Project Documents/Project Requirements/Forge Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
@@ -446,11 +446,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -463,120 +463,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -1081,7 +968,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="41"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,8 +1258,8 @@
   </sheetPr>
   <dimension ref="B2:BQ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1387,22 +1274,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1298,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1440,12 +1327,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1713,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -1729,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F10" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,13 +1636,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1769,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,13 +1676,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,13 +1696,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,13 +1716,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,13 +1756,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1983,90 +1870,90 @@
     <mergeCell ref="B2:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:BP15 I17:BP17 I19:BP28 I10:BP13 I9 K9:BP9">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="30" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="27" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44">
+    <cfRule type="expression" dxfId="26" priority="44">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:BP29">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BP14">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="17" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BP16">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
